--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2707.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2707.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166806524376214</v>
+        <v>0.9139728546142578</v>
       </c>
       <c r="B1">
-        <v>2.410874489671027</v>
+        <v>2.543910026550293</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.799402713775635</v>
       </c>
       <c r="D1">
-        <v>2.343911488633926</v>
+        <v>1.324440836906433</v>
       </c>
       <c r="E1">
-        <v>1.21580095811349</v>
+        <v>1.33961296081543</v>
       </c>
     </row>
   </sheetData>
